--- a/data-raw/files/locations/norway_locations_ward.xlsx
+++ b/data-raw/files/locations/norway_locations_ward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/homes/raw996/dev/containers/csids-sc8/csids-rstudio/csdata/data-raw/files/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F7BEB-329A-9F43-9A3C-B91B5E6DAB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C899C7-5E13-8F48-B612-A979CB5EA6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="500" windowWidth="49780" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,319 +39,319 @@
     <t>weighting</t>
   </si>
   <si>
+    <t>ward_code_end</t>
+  </si>
+  <si>
+    <t>ward_code</t>
+  </si>
+  <si>
+    <t>Alna</t>
+  </si>
+  <si>
+    <t>Bjerke</t>
+  </si>
+  <si>
+    <t>Frogner</t>
+  </si>
+  <si>
+    <t>Gamle Oslo</t>
+  </si>
+  <si>
+    <t>Grorud</t>
+  </si>
+  <si>
+    <t>Grünerløkka</t>
+  </si>
+  <si>
+    <t>Nordre Aker</t>
+  </si>
+  <si>
+    <t>Nordstrand</t>
+  </si>
+  <si>
+    <t>Sagene</t>
+  </si>
+  <si>
+    <t>St. Hanshaugen</t>
+  </si>
+  <si>
+    <t>Stovner</t>
+  </si>
+  <si>
+    <t>Søndre Nordstrand</t>
+  </si>
+  <si>
+    <t>Ullern</t>
+  </si>
+  <si>
+    <t>Vestre Aker</t>
+  </si>
+  <si>
+    <t>Østensjø</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>ward_name</t>
+  </si>
+  <si>
+    <t>Hundvåg</t>
+  </si>
+  <si>
+    <t>Tasta</t>
+  </si>
+  <si>
+    <t>Eiganes og Våland</t>
+  </si>
+  <si>
+    <t>Madla</t>
+  </si>
+  <si>
+    <t>Storhaug</t>
+  </si>
+  <si>
+    <t>Hillevåg</t>
+  </si>
+  <si>
+    <t>Hinna</t>
+  </si>
+  <si>
+    <t>Finnøy</t>
+  </si>
+  <si>
+    <t>Rennesøy</t>
+  </si>
+  <si>
+    <t>Stavanger</t>
+  </si>
+  <si>
+    <t>Arna</t>
+  </si>
+  <si>
+    <t>Fana</t>
+  </si>
+  <si>
+    <t>Fyllingsdalen</t>
+  </si>
+  <si>
+    <t>Laksevåg</t>
+  </si>
+  <si>
+    <t>Ytrebygda</t>
+  </si>
+  <si>
+    <t>Ørstad</t>
+  </si>
+  <si>
+    <t>Øsane</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Midtbyen</t>
+  </si>
+  <si>
+    <t>Østbyen</t>
+  </si>
+  <si>
+    <t>Lerkendal</t>
+  </si>
+  <si>
+    <t>Heimdal</t>
+  </si>
+  <si>
+    <t>Trondheim</t>
+  </si>
+  <si>
+    <t>Årstad</t>
+  </si>
+  <si>
+    <t>Åsane</t>
+  </si>
+  <si>
+    <t>Sentrum</t>
+  </si>
+  <si>
+    <t>Marka</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030101</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030102</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030103</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030104</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030105</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030106</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030107</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030108</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030109</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030110</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030111</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030112</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030113</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030114</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030115</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030116</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030117</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110301</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110302</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110303</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110304</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110305</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110306</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110307</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110308</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110309</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460101</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120101</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460102</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120102</t>
+  </si>
+  <si>
+    <t>bergen_norhus</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460103</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120103</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460104</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120104</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460105</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120105</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460106</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120106</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460107</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120107</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460108</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120108</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500101</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160101</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500102</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160102</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500103</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160103</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500104</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160104</t>
+  </si>
+  <si>
+    <t>municip_nor0301</t>
+  </si>
+  <si>
+    <t>municip_nor1103</t>
+  </si>
+  <si>
+    <t>municip_nor1201</t>
+  </si>
+  <si>
+    <t>municip_nor4601</t>
+  </si>
+  <si>
+    <t>municip_nor1601</t>
+  </si>
+  <si>
+    <t>municip_nor5001</t>
+  </si>
+  <si>
+    <t>municip_code</t>
+  </si>
+  <si>
     <t>municip_name</t>
-  </si>
-  <si>
-    <t>ward_code_end</t>
-  </si>
-  <si>
-    <t>ward_code</t>
-  </si>
-  <si>
-    <t>Alna</t>
-  </si>
-  <si>
-    <t>Bjerke</t>
-  </si>
-  <si>
-    <t>Frogner</t>
-  </si>
-  <si>
-    <t>Gamle Oslo</t>
-  </si>
-  <si>
-    <t>Grorud</t>
-  </si>
-  <si>
-    <t>Grünerløkka</t>
-  </si>
-  <si>
-    <t>Nordre Aker</t>
-  </si>
-  <si>
-    <t>Nordstrand</t>
-  </si>
-  <si>
-    <t>Sagene</t>
-  </si>
-  <si>
-    <t>St. Hanshaugen</t>
-  </si>
-  <si>
-    <t>Stovner</t>
-  </si>
-  <si>
-    <t>Søndre Nordstrand</t>
-  </si>
-  <si>
-    <t>Ullern</t>
-  </si>
-  <si>
-    <t>Vestre Aker</t>
-  </si>
-  <si>
-    <t>Østensjø</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>municip_code</t>
-  </si>
-  <si>
-    <t>ward_name</t>
-  </si>
-  <si>
-    <t>municip0301</t>
-  </si>
-  <si>
-    <t>Hundvåg</t>
-  </si>
-  <si>
-    <t>Tasta</t>
-  </si>
-  <si>
-    <t>Eiganes og Våland</t>
-  </si>
-  <si>
-    <t>Madla</t>
-  </si>
-  <si>
-    <t>Storhaug</t>
-  </si>
-  <si>
-    <t>Hillevåg</t>
-  </si>
-  <si>
-    <t>Hinna</t>
-  </si>
-  <si>
-    <t>Finnøy</t>
-  </si>
-  <si>
-    <t>Rennesøy</t>
-  </si>
-  <si>
-    <t>municip1103</t>
-  </si>
-  <si>
-    <t>Stavanger</t>
-  </si>
-  <si>
-    <t>Arna</t>
-  </si>
-  <si>
-    <t>Fana</t>
-  </si>
-  <si>
-    <t>Fyllingsdalen</t>
-  </si>
-  <si>
-    <t>Laksevåg</t>
-  </si>
-  <si>
-    <t>Ytrebygda</t>
-  </si>
-  <si>
-    <t>Ørstad</t>
-  </si>
-  <si>
-    <t>Øsane</t>
-  </si>
-  <si>
-    <t>municip1201</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>municip4601</t>
-  </si>
-  <si>
-    <t>Midtbyen</t>
-  </si>
-  <si>
-    <t>Østbyen</t>
-  </si>
-  <si>
-    <t>Lerkendal</t>
-  </si>
-  <si>
-    <t>Heimdal</t>
-  </si>
-  <si>
-    <t>municip1601</t>
-  </si>
-  <si>
-    <t>Trondheim</t>
-  </si>
-  <si>
-    <t>municip5001</t>
-  </si>
-  <si>
-    <t>Årstad</t>
-  </si>
-  <si>
-    <t>Åsane</t>
-  </si>
-  <si>
-    <t>Sentrum</t>
-  </si>
-  <si>
-    <t>Marka</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030101</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030102</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030103</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030104</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030105</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030106</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030107</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030108</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030109</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030110</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030111</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030112</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030113</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030114</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030115</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030116</t>
-  </si>
-  <si>
-    <t>wardoslo_nor030117</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110301</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110302</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110303</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110304</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110305</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110306</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110307</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110308</t>
-  </si>
-  <si>
-    <t>wardstavanger_nor110309</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460101</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120101</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460102</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120102</t>
-  </si>
-  <si>
-    <t>bergen_norhus</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460103</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120103</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460104</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120104</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460105</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120105</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460106</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120106</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460107</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120107</t>
-  </si>
-  <si>
-    <t>wardbergen_nor460108</t>
-  </si>
-  <si>
-    <t>wardbergen_nor120108</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor500101</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor160101</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor500102</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor160102</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor500103</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor160103</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor500104</t>
-  </si>
-  <si>
-    <t>wardtrondheim_nor160104</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:H51"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -748,22 +748,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -771,16 +771,16 @@
         <v>2005</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -788,16 +788,16 @@
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -805,16 +805,16 @@
         <v>2005</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -822,16 +822,16 @@
         <v>2005</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -839,16 +839,16 @@
         <v>2005</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -856,16 +856,16 @@
         <v>2005</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -873,16 +873,16 @@
         <v>2005</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -890,16 +890,16 @@
         <v>2005</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -907,16 +907,16 @@
         <v>2005</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -924,16 +924,16 @@
         <v>2005</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -941,16 +941,16 @@
         <v>2005</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -958,16 +958,16 @@
         <v>2005</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -975,16 +975,16 @@
         <v>2005</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
         <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -992,16 +992,16 @@
         <v>2005</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1009,16 +1009,16 @@
         <v>2005</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1026,16 +1026,16 @@
         <v>2005</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1043,16 +1043,16 @@
         <v>2005</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1060,16 +1060,16 @@
         <v>2005</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1077,16 +1077,16 @@
         <v>2005</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1094,16 +1094,16 @@
         <v>2005</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1111,16 +1111,16 @@
         <v>2005</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1128,16 +1128,16 @@
         <v>2005</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1145,16 +1145,16 @@
         <v>2005</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1162,16 +1162,16 @@
         <v>2005</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" t="s">
         <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1179,16 +1179,16 @@
         <v>2005</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1196,16 +1196,16 @@
         <v>2005</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1216,19 +1216,19 @@
         <v>2019</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,19 +1239,19 @@
         <v>2019</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1262,19 +1262,19 @@
         <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1285,19 +1285,19 @@
         <v>2019</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1308,19 +1308,19 @@
         <v>2019</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
         <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1331,19 +1331,19 @@
         <v>2019</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1354,19 +1354,19 @@
         <v>2019</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1377,19 +1377,19 @@
         <v>2019</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1397,16 +1397,16 @@
         <v>2020</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1414,16 +1414,16 @@
         <v>2020</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1431,16 +1431,16 @@
         <v>2020</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1448,16 +1448,16 @@
         <v>2020</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1465,16 +1465,16 @@
         <v>2020</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" t="s">
         <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1482,16 +1482,16 @@
         <v>2020</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1499,16 +1499,16 @@
         <v>2020</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1516,16 +1516,16 @@
         <v>2020</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1536,19 +1536,19 @@
         <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H44" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1559,19 +1559,19 @@
         <v>2017</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H45" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1582,19 +1582,19 @@
         <v>2017</v>
       </c>
       <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
         <v>104</v>
       </c>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1605,19 +1605,19 @@
         <v>2017</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1625,16 +1625,16 @@
         <v>2018</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1642,16 +1642,16 @@
         <v>2018</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -1659,16 +1659,16 @@
         <v>2018</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -1676,16 +1676,16 @@
         <v>2018</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
